--- a/biology/Médecine/Ivan_Ermakov/Ivan_Ermakov.xlsx
+++ b/biology/Médecine/Ivan_Ermakov/Ivan_Ermakov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Ermakov (en russe : Иван Дмитриевич Ермаков ; né le 6 octobre 1875 à Constantinople et mort le 31 mars 1942 à Saratov, en Russie) est un psychiatre, psychologue, peintre, critique littéraire, un des pionniers de la psychanalyse russe, puis soviétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Ermakov est né dans la famille de Dimitri Ermakov, photographe réputé à Tiflis en Géorgie (pays). Ivan a d'ailleurs vécu à Tiflis dans sa jeunesse.
 Il termine le gymnasium de Tiflis, dans la section classique, en 1896.
@@ -547,7 +561,9 @@
           <t>Activité professionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi ses centres d'intérêts professionnels on peut citer: la psychanalyse dans la création artistique, l'hypnologie, la différenciation des sexes dans les dessins d'enfants, les problèmes posés par le symbolisme.
 En 1913, Ermakov participe à des missions scientifiques à l'étranger (Berlin, Paris, Munich, Berne, Budapest). Il rencontre Eugen Bleuler le chercheur suisse spécialisé en en matière de schizophrénie et d'autisme. À son retour en Russie, à l'automne 1913, Ermakov expose à ses collègues de la société de physique et de chimie et à la clinique universitaire ses rapports sur les enseignements de Sigmund Freud et l'application qui peut en être faite en matière de troubles mentaux.
@@ -582,7 +598,9 @@
           <t>Activités culturelles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À côté de son activité scientifique, Ermakov s'intéresse à la peinture et au graphisme. De 1916 à 1921, il participe à une série d'expositions (la 44e exposition des Ambulants , une exposition du Valet de Carreau et d'autres encore). À partir de 1916, il fait partie du groupe artistique Mir iskousstva. Ermakov a aussi été membre de l'académie d'État des beaux-arts. De 1919 à 1923, il est chargé de la direction d'un département de la Galerie Tretiakov.
 Ermakov a également participé à toutes les expositions de l'association des artistes Les Quatre Arts en 1925, 1926, 1928 et 1929. On peut citer des œuvres telles que: Nature morte (1925), Cordoue à l'aube (1926), Pommes (1928) et Avant l'orage, Paysage (1929).
@@ -614,7 +632,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(ru) Ivan Ermakov /Ермаков, И. Д. étude psychologique de l'œuvre de Pouchkine /Этюды по психологии творчества А. С. Пушкина (1923).
 (ru) Ivan Ermakov /Ермаков, И. Д. analyse de l'œuvre de Nicolas Gogol/Очерки по анализу творчества Н. В. Гоголя (1923).
